--- a/input_files/cds_quotes.xlsx
+++ b/input_files/cds_quotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBA23C2-13C3-4165-8DD3-21A98EE4F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183AF79B-63AA-49A4-BE14-91B145620D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8790" yWindow="-13890" windowWidth="17730" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17700" yWindow="-16020" windowWidth="20235" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>months</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>quotes</t>
+  </si>
+  <si>
+    <t>maturities</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>24M</t>
+  </si>
+  <si>
+    <t>36M</t>
+  </si>
+  <si>
+    <t>72M</t>
+  </si>
+  <si>
+    <t>120M</t>
+  </si>
+  <si>
+    <t>240M</t>
   </si>
 </sst>
 </file>
@@ -383,62 +401,62 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>12</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1.469E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>24</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>36</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>72</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>120</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1.83E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>240</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1.84E-2</v>
